--- a/com.cbssports/src/test/resources/TestData.xlsx
+++ b/com.cbssports/src/test/resources/TestData.xlsx
@@ -1,32 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hafiz\IDEA Project\Team1BootCamp\base\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hafiz\IDEA Project\Team1BootCamp\com.cbssports\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4722EE68-90EB-42C0-AF92-D8B589C2F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77930B0A-3C9D-49D3-AE38-F79D977AFD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expedia" sheetId="1" r:id="rId1"/>
-    <sheet name="Ebay" sheetId="2" r:id="rId2"/>
-    <sheet name="CBSSports" sheetId="3" r:id="rId3"/>
-    <sheet name="ATT" sheetId="4" r:id="rId4"/>
-    <sheet name="BankOfAmerica" sheetId="5" r:id="rId5"/>
-    <sheet name="BMWUSA" sheetId="6" r:id="rId6"/>
-    <sheet name="Trulia" sheetId="7" r:id="rId7"/>
-    <sheet name="AirBNB" sheetId="8" r:id="rId8"/>
-    <sheet name="OverStock" sheetId="9" r:id="rId9"/>
-    <sheet name="ESPN" sheetId="10" r:id="rId10"/>
-    <sheet name="Verizon" sheetId="11" r:id="rId11"/>
-    <sheet name="Chase" sheetId="12" r:id="rId12"/>
-    <sheet name="Mercedes-Benz" sheetId="13" r:id="rId13"/>
-    <sheet name="Redfin" sheetId="14" r:id="rId14"/>
+    <sheet name="AssertionResult" sheetId="15" r:id="rId1"/>
+    <sheet name="Expected" sheetId="19" r:id="rId2"/>
+    <sheet name="Credentials" sheetId="18" r:id="rId3"/>
+    <sheet name="REGAssertionResult" sheetId="20" r:id="rId4"/>
+    <sheet name="REGCredentials" sheetId="22" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,19 +38,200 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>A</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>MY TEAMS</t>
+  </si>
+  <si>
+    <t>Sorry, either your email address and/or password was not found. Please try again.</t>
+  </si>
+  <si>
+    <t>Email or Member ID is a required field. + Password is a required field.</t>
+  </si>
+  <si>
+    <t>Not a valid email address or ID.</t>
+  </si>
+  <si>
+    <t>Must be 4 or more characters.</t>
+  </si>
+  <si>
+    <t>sample789098@yahoo.com</t>
+  </si>
+  <si>
+    <t>QAZ@xsw.7890</t>
+  </si>
+  <si>
+    <t>sample@yahoo.com</t>
+  </si>
+  <si>
+    <t>password123</t>
+  </si>
+  <si>
+    <t>sample.yahoo.com</t>
+  </si>
+  <si>
+    <t>QAZ</t>
+  </si>
+  <si>
+    <t>FORGOT YOUR PASSWORD?</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>DON'T HAVE AN ACCOUNT? SIGN UP</t>
+  </si>
+  <si>
+    <t>LOG IN</t>
+  </si>
+  <si>
+    <t>Success! Thank you for registering for a CBSSports.com account!</t>
+  </si>
+  <si>
+    <t>Not a valid email address.</t>
+  </si>
+  <si>
+    <t>Must be 6 or more characters.</t>
+  </si>
+  <si>
+    <t>Passwords don't match.</t>
+  </si>
+  <si>
+    <t>Duplicate Email [sample73888@gmail.com]</t>
+  </si>
+  <si>
+    <t>Please check your password format.</t>
+  </si>
+  <si>
+    <t>You must accept the terms of service</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Re-Enter Pass</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>sample021788@gmail.com</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Password%1234</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>sample73888</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>sample73888@gmail.com</t>
+  </si>
+  <si>
+    <t>password34</t>
+  </si>
+  <si>
+    <t>pas</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>11433</t>
+  </si>
+  <si>
+    <t>1143</t>
+  </si>
+  <si>
+    <t>sample931760@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not a valid email address. Must be 6 or more characters. Passwords don't match. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,8 +257,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,195 +591,553 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F16D271-5906-41EE-853E-85EA245B6942}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C6DB0C-125D-41E6-B672-3FA74959CDA8}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAF39B1-1653-4DFC-8297-307089EEB1BF}">
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="90" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4F54D1-3917-41AA-9115-54DFB60054C4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A4ED8F-84C7-4351-B184-022F160E827E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD1F144-5BE0-43B5-8C2F-943F03339C79}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C25186B-8AE5-4703-8BDB-6D9F1A2F53C3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9751B09C-FE73-4F13-A91B-81E55B55AAEA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AFF5CB-0840-4185-8CF9-C8D87C4F83AD}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="32.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A517B4-AB0A-4E50-8324-F3955FA294DA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE82CF9-D2BC-406D-8B86-7B038037613E}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="30.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0464987E-CA86-496F-AFAF-2580C40BA720}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81D9F3F-CCCE-4DC8-AD6F-1F59647910C7}">
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="86" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB124C4-9CEE-457F-95C0-47C63DA908AF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD1EF02-EA61-4435-AE88-ADF39B7B8216}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="4" max="5" width="16.81640625" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:9">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5674FF68-7C81-4A9C-99FE-C7E070DBCFFA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC436034-E141-4F6F-A259-658744C38455}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F06E338-1C0F-45E0-B136-3FC6897D7CEC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A9241A-80CA-47A8-B8A7-CE843E51095C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/com.cbssports/src/test/resources/TestData.xlsx
+++ b/com.cbssports/src/test/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hafiz\IDEA Project\Team1BootCamp\base\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khadizapushpo/IdeaProjects/Team1BootCamp/com.cbssports/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4722EE68-90EB-42C0-AF92-D8B589C2F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B5ED3D-4A82-9C46-A669-D40E01FE4191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
+    <workbookView xWindow="6680" yWindow="1940" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
   </bookViews>
   <sheets>
     <sheet name="Expedia" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>NFL</t>
+  </si>
+  <si>
+    <t>Dont have an Account?Sign Up?</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>SCHEDULE</t>
+  </si>
+  <si>
+    <t>SCORES</t>
+  </si>
+  <si>
+    <t>STANDINGS</t>
+  </si>
+  <si>
+    <t>TEAMS</t>
+  </si>
+  <si>
+    <t>STATS</t>
+  </si>
+  <si>
+    <t>PLAY</t>
+  </si>
+  <si>
+    <t>WATCH</t>
+  </si>
+  <si>
+    <t>BET</t>
+  </si>
+  <si>
+    <t>POSCASTS</t>
+  </si>
+  <si>
+    <t>REGISTER</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>CONFIRM PASSWORD</t>
+  </si>
+  <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>ZIP CODE</t>
+  </si>
+  <si>
+    <t>CHECK BOX</t>
+  </si>
+  <si>
+    <t>PLAYERS</t>
+  </si>
+  <si>
+    <t>LOG IN</t>
   </si>
 </sst>
 </file>
@@ -403,9 +481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F16D271-5906-41EE-853E-85EA245B6942}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -419,7 +497,7 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -433,7 +511,7 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -447,7 +525,7 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -461,7 +539,7 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -475,7 +553,7 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -489,7 +567,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -497,14 +575,158 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A517B4-AB0A-4E50-8324-F3955FA294DA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <dimension ref="A1:A28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -517,7 +739,7 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -531,9 +753,9 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +773,7 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -563,7 +785,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -575,7 +797,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -587,7 +809,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/com.cbssports/src/test/resources/TestData.xlsx
+++ b/com.cbssports/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khadizapushpo/IdeaProjects/Team1BootCamp/com.cbssports/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B5ED3D-4A82-9C46-A669-D40E01FE4191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BF8411-A52A-324D-AA21-F0A1A398160D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="1940" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
+    <workbookView xWindow="6680" yWindow="1940" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="12" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
   </bookViews>
   <sheets>
     <sheet name="Expedia" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>A</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>LOG IN</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Register</t>
   </si>
 </sst>
 </file>
@@ -533,14 +539,28 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD1F144-5BE0-43B5-8C2F-943F03339C79}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -577,7 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A517B4-AB0A-4E50-8324-F3955FA294DA}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
